--- a/Data_S1_full_models.xlsx
+++ b/Data_S1_full_models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cogbunug/Dropbox/Cannnons/Phase 3/Golovkin (GGG)/GGG Corn #1_Satan_Corn/Manuscript Figure Set/9_17_Satan Corn Supplemental/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafguerr/Dropbox/GGG Corn/Manuscript Figure Set/9_17_Satan Corn Supplemental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4E27EB-24C4-D447-BFCA-3C21363FB006}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99CC65D-ACAF-DD4A-A524-1490782D0B1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="640" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="640" windowWidth="27940" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC50" sheetId="1" r:id="rId1"/>
@@ -33,217 +33,217 @@
     <t>Estimate (Alpha = 0.5)</t>
   </si>
   <si>
-    <t>C.muridarum</t>
-  </si>
-  <si>
     <t>L28R</t>
   </si>
   <si>
-    <t>L.grayi</t>
-  </si>
-  <si>
-    <t>C.muridarum:P21L</t>
-  </si>
-  <si>
-    <t>L.grayi:L28R</t>
-  </si>
-  <si>
-    <t>L.grayi:LON</t>
-  </si>
-  <si>
     <t>P21L</t>
   </si>
   <si>
-    <t>L.grayi:P21L:A26T</t>
-  </si>
-  <si>
     <t>P21L:L28R</t>
   </si>
   <si>
-    <t>L.grayi:GroEL</t>
-  </si>
-  <si>
-    <t>L.grayi:GroEL:A26T:L28R</t>
-  </si>
-  <si>
-    <t>C.muridarum:LON</t>
-  </si>
-  <si>
-    <t>C.muridarum:GroEL</t>
-  </si>
-  <si>
-    <t>C.muridarum:LON:P21L:A26T</t>
-  </si>
-  <si>
-    <t>C.muridarum:LON:P21L:A26T:L28R</t>
-  </si>
-  <si>
     <t>GroEL:P21L:A26T</t>
   </si>
   <si>
-    <t>L.grayi:GroEL:P21L:A26T:L28R</t>
-  </si>
-  <si>
-    <t>C.muridarum:GroEL:P21L:A26T:L28R</t>
-  </si>
-  <si>
-    <t>LON:L28R</t>
-  </si>
-  <si>
     <t>GroEL:P21L:L28R</t>
   </si>
   <si>
     <t>P21L:A26T</t>
   </si>
   <si>
-    <t>L.grayi:P21L:L28R</t>
-  </si>
-  <si>
-    <t>C.muridarum:GroEL:L28R</t>
-  </si>
-  <si>
-    <t>L.grayi:P21L:A26T:L28R</t>
-  </si>
-  <si>
-    <t>C.muridarum:GroEL:A26T</t>
-  </si>
-  <si>
     <t>P21L:A26T:L28R</t>
   </si>
   <si>
-    <t>C.muridarum:LON:A26T</t>
-  </si>
-  <si>
     <t>A26T</t>
   </si>
   <si>
-    <t>LON:A26T:L28R</t>
-  </si>
-  <si>
-    <t>L.grayi:A26T</t>
-  </si>
-  <si>
-    <t>LON:P21L</t>
-  </si>
-  <si>
-    <t>C.muridarum:A26T:L28R</t>
-  </si>
-  <si>
-    <t>L.grayi:LON:P21L</t>
-  </si>
-  <si>
-    <t>C.muridarum:GroEL:P21L:A26T</t>
-  </si>
-  <si>
-    <t>L.grayi:GroEL:P21L:A26T</t>
-  </si>
-  <si>
     <t>GroEL</t>
   </si>
   <si>
-    <t>LON</t>
-  </si>
-  <si>
-    <t>L.grayi:P21L</t>
-  </si>
-  <si>
     <t>GroEL:P21L</t>
   </si>
   <si>
-    <t>C.muridarum:A26T</t>
-  </si>
-  <si>
     <t>GroEL:A26T</t>
   </si>
   <si>
-    <t>LON:A26T</t>
-  </si>
-  <si>
-    <t>C.muridarum:L28R</t>
-  </si>
-  <si>
     <t>GroEL:L28R</t>
   </si>
   <si>
     <t>A26T:L28R</t>
   </si>
   <si>
-    <t>C.muridarum:GroEL:P21L</t>
-  </si>
-  <si>
-    <t>L.grayi:GroEL:P21L</t>
-  </si>
-  <si>
-    <t>C.muridarum:LON:P21L</t>
-  </si>
-  <si>
-    <t>L.grayi:GroEL:A26T</t>
-  </si>
-  <si>
-    <t>L.grayi:LON:A26T</t>
-  </si>
-  <si>
-    <t>C.muridarum:P21L:A26T</t>
-  </si>
-  <si>
-    <t>LON:P21L:A26T</t>
-  </si>
-  <si>
-    <t>L.grayi:GroEL:L28R</t>
-  </si>
-  <si>
-    <t>C.muridarum:LON:L28R</t>
-  </si>
-  <si>
-    <t>L.grayi:LON:L28R</t>
-  </si>
-  <si>
-    <t>C.muridarum:P21L:L28R</t>
-  </si>
-  <si>
-    <t>LON:P21L:L28R</t>
-  </si>
-  <si>
-    <t>L.grayi:A26T:L28R</t>
-  </si>
-  <si>
     <t>GroEL:A26T:L28R</t>
   </si>
   <si>
-    <t>L.grayi:LON:P21L:A26T</t>
-  </si>
-  <si>
-    <t>C.muridarum:GroEL:P21L:L28R</t>
-  </si>
-  <si>
-    <t>L.grayi:GroEL:P21L:L28R</t>
-  </si>
-  <si>
-    <t>C.muridarum:LON:P21L:L28R</t>
-  </si>
-  <si>
-    <t>L.grayi:LON:P21L:L28R</t>
-  </si>
-  <si>
-    <t>C.muridarum:GroEL:A26T:L28R</t>
-  </si>
-  <si>
-    <t>C.muridarum:LON:A26T:L28R</t>
-  </si>
-  <si>
-    <t>L.grayi:LON:A26T:L28R</t>
-  </si>
-  <si>
-    <t>C.muridarum:P21L:A26T:L28R</t>
-  </si>
-  <si>
     <t>GroEL:P21L:A26T:L28R</t>
   </si>
   <si>
-    <t>LON:P21L:A26T:L28R</t>
-  </si>
-  <si>
-    <t>L.grayi:LON:P21L:A26T:L28R</t>
+    <t>DHFR-Lg</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:P21L:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:GroEL</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:GroEL:A26T:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:GroEL:P21L:A26T:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:P21L:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:P21L:A26T:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:GroEL:P21L:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:P21L</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:GroEL:P21L</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:GroEL:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:GroEL:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:A26T:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:GroEL:P21L:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Cm</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:P21L</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:GroEL</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:GroEL:P21L:A26T:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:GroEL:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:GroEL:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:A26T:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:GroEL:P21L:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:GroEL:P21L</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:P21L:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:P21L:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:GroEL:P21L:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:GroEL:A26T:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:P21L:A26T:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:lon</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:lon</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:lon:P21L:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:lon:P21L:A26T:L28R</t>
+  </si>
+  <si>
+    <t>lon:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:lon:A26T</t>
+  </si>
+  <si>
+    <t>lon:A26T:L28R</t>
+  </si>
+  <si>
+    <t>lon:P21L</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:lon:P21L</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>lon:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:lon:P21L</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:lon:A26T</t>
+  </si>
+  <si>
+    <t>lon:P21L:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:lon:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:lon:L28R</t>
+  </si>
+  <si>
+    <t>lon:P21L:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:lon:P21L:A26T</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:lon:P21L:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:lon:P21L:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Cm:lon:A26T:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:lon:A26T:L28R</t>
+  </si>
+  <si>
+    <t>lon:P21L:A26T:L28R</t>
+  </si>
+  <si>
+    <t>DHFR-Lg:lon:P21L:A26T:L28R</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -621,7 +621,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>-1.4438634290061001</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>1.2154890684574999</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>-0.899494457302073</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>-0.81916517597343297</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>-0.68891467740747003</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>0.59439003206317798</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>0.57652089068738499</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>-0.52142573545385695</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>-0.473833894737266</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>0.41042169388670902</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>0.37655334866837598</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>0.35885454205770201</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>0.29980286124130801</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1">
         <v>0.24287297566534999</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1">
         <v>0.23446899342111599</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>0.21544338957989101</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>0.21523485760341701</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1">
         <v>-0.19249141827232499</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1">
         <v>0.177760734981084</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
         <v>-0.16564268217106901</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
         <v>0.11052653920462401</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1">
         <v>0.105765104426975</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>-0.101871431240126</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1">
         <v>7.6674238449200405E-2</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
         <v>-6.2265644547115799E-2</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1">
         <v>4.5838807941817598E-2</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
         <v>2.2044094009503499E-2</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
         <v>2.1270504601701001E-2</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>-1.3256606560772599E-2</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1">
         <v>1.14050848469553E-2</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1">
         <v>-6.7062966790309101E-3</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1">
         <v>6.0157757893085596E-3</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1">
         <v>-5.5575510638640798E-3</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1">
         <v>2.1965945415772098E-3</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -1410,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33CB42C-9517-F64E-A3F5-DF192094F3C0}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>1.58858062146894</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>-1.0097141704622701</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>-1.00750357866908</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.88252682019731499</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>0.868050447336426</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>-0.84336747514011601</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>-0.84009919528058796</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>-0.68674636195780703</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>0.52948294013361397</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>-0.47110804420748398</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1">
         <v>0.43851794383488701</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1">
         <v>0.38514703636123798</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
         <v>-0.35016119850392702</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1">
         <v>0.34324245453485602</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1">
         <v>0.31495887813922202</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1">
         <v>-0.29437531251657001</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>0.27762046740497598</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1">
         <v>0.27442021912564002</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
         <v>0.25062001375124399</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0.23331656538093601</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>0.222514770527967</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
         <v>-0.216659726970542</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1">
         <v>0.19239474228453901</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1">
         <v>-0.189792820327599</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>0.14097956990081201</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>-0.13973662679362001</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1">
         <v>8.5204450494929904E-2</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1">
         <v>6.8234075114776999E-2</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1">
         <v>5.31341986065599E-2</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1">
         <v>-5.18552899874224E-2</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>2.87594121828663E-2</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1">
         <v>2.6501662857269601E-2</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>2.4881997046332299E-2</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1">
         <v>1.53147861709741E-2</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1">
         <v>5.8952225922859298E-3</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1">
         <v>5.1714943136588797E-3</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -2221,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7E9796-D27B-434E-9921-CFC727FE16FD}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
